--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.926269234428936</v>
+        <v>13.926269235052851</v>
       </c>
       <c r="C2">
-        <v>15.644413353290791</v>
+        <v>15.644413349156169</v>
       </c>
       <c r="D2">
-        <v>15.12455500921252</v>
+        <v>15.124555011421245</v>
       </c>
       <c r="E2">
-        <v>16.636120285813465</v>
+        <v>16.636120287478064</v>
       </c>
       <c r="F2">
-        <v>10.944858368975487</v>
+        <v>10.944858369167482</v>
       </c>
       <c r="G2">
-        <v>13.334404470372782</v>
+        <v>13.334404465351183</v>
       </c>
       <c r="H2">
-        <v>11.233745507449594</v>
+        <v>11.23374549872783</v>
       </c>
       <c r="I2">
-        <v>12.211523229498139</v>
+        <v>12.21152322912892</v>
       </c>
       <c r="J2">
-        <v>16.535511844849648</v>
+        <v>16.535511844054788</v>
       </c>
       <c r="K2">
-        <v>12.687302201093361</v>
+        <v>12.687302198835981</v>
       </c>
       <c r="L2">
-        <v>12.256364401142656</v>
+        <v>12.256364410201559</v>
       </c>
       <c r="M2">
-        <v>13.711446977780334</v>
+        <v>13.711446971445303</v>
       </c>
       <c r="N2">
-        <v>13.189041026458135</v>
+        <v>13.189041021455052</v>
       </c>
       <c r="O2">
-        <v>12.232762436246599</v>
+        <v>12.232762440473394</v>
       </c>
       <c r="P2">
-        <v>14.235354712580047</v>
+        <v>14.23535470472777</v>
       </c>
       <c r="Q2">
-        <v>12.9012908487733</v>
+        <v>12.901290847121361</v>
       </c>
       <c r="R2">
-        <v>11.559030910670156</v>
+        <v>11.559030914856949</v>
       </c>
       <c r="S2">
-        <v>17.174195331563435</v>
+        <v>17.174195300190345</v>
       </c>
       <c r="T2">
-        <v>13.055880601739755</v>
+        <v>13.0558806026017</v>
       </c>
       <c r="U2">
-        <v>15.060853934685248</v>
+        <v>15.060853930599173</v>
       </c>
       <c r="V2">
-        <v>10.901748310002974</v>
+        <v>10.901748302611502</v>
       </c>
       <c r="W2">
-        <v>10.476582958092003</v>
+        <v>10.476582942264697</v>
       </c>
       <c r="X2">
-        <v>14.53779390530056</v>
+        <v>14.537793905942495</v>
       </c>
       <c r="Y2">
-        <v>15.372366486878736</v>
+        <v>15.372366483224297</v>
       </c>
       <c r="Z2">
-        <v>14.957034543430673</v>
+        <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>17.346853987558212</v>
+        <v>17.346854001942443</v>
       </c>
       <c r="AB2">
-        <v>18.827529703083101</v>
+        <v>18.827529692122379</v>
       </c>
       <c r="AC2">
-        <v>14.165980893651655</v>
+        <v>14.165980887604332</v>
       </c>
       <c r="AD2">
-        <v>18.291761322453194</v>
+        <v>18.291761316014668</v>
       </c>
       <c r="AE2">
-        <v>12.942764912499328</v>
+        <v>12.942764913666139</v>
       </c>
       <c r="AF2">
-        <v>14.162486025666707</v>
+        <v>14.162486016752162</v>
       </c>
       <c r="AG2">
-        <v>12.288475133574511</v>
+        <v>12.288475124066126</v>
       </c>
       <c r="AH2">
-        <v>13.021013363343185</v>
+        <v>13.021013359537301</v>
       </c>
       <c r="AI2">
-        <v>19.427290009225047</v>
+        <v>19.427289978942465</v>
       </c>
       <c r="AJ2">
-        <v>13.417102303770372</v>
+        <v>13.417102294208705</v>
       </c>
       <c r="AK2">
-        <v>13.5234547455032</v>
+        <v>13.523454738695733</v>
       </c>
       <c r="AL2">
-        <v>15.118531514280306</v>
+        <v>15.118531505691596</v>
       </c>
       <c r="AM2">
-        <v>13.858941265384534</v>
+        <v>13.858941247051874</v>
       </c>
       <c r="AN2">
-        <v>13.066501876712969</v>
+        <v>13.066501868432459</v>
       </c>
       <c r="AO2">
-        <v>16.372161836373895</v>
+        <v>16.372161865480393</v>
       </c>
       <c r="AP2">
-        <v>13.739175549242574</v>
+        <v>13.739175544269354</v>
       </c>
       <c r="AQ2">
-        <v>12.322849687399707</v>
+        <v>12.322849670143519</v>
       </c>
       <c r="AR2">
-        <v>17.084851085983612</v>
+        <v>17.084851084335412</v>
       </c>
       <c r="AS2">
-        <v>15.198875437573353</v>
+        <v>15.198875421769298</v>
       </c>
       <c r="AT2">
-        <v>17.033622666436699</v>
+        <v>17.033622686537175</v>
       </c>
       <c r="AU2">
-        <v>12.141040082201657</v>
+        <v>12.141040070960686</v>
       </c>
       <c r="AV2">
-        <v>13.572157740914232</v>
+        <v>13.572157750411995</v>
       </c>
       <c r="AW2">
-        <v>14.528030956252813</v>
+        <v>14.528030936549113</v>
       </c>
       <c r="AX2">
-        <v>17.690109304001044</v>
+        <v>17.690109289365203</v>
       </c>
       <c r="AY2">
-        <v>17.105012786921105</v>
+        <v>17.105012776119221</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>15.08524154304394</v>
       </c>
       <c r="C3">
-        <v>14.378015777333413</v>
+        <v>14.378015773074415</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>15.982707751375441</v>
       </c>
       <c r="E3">
-        <v>15.189677107815495</v>
+        <v>15.189677103447577</v>
       </c>
       <c r="F3">
-        <v>10.823284985931757</v>
+        <v>10.823284980447214</v>
       </c>
       <c r="G3">
-        <v>14.576112942933117</v>
+        <v>14.576112938815983</v>
       </c>
       <c r="H3">
-        <v>10.397545586986036</v>
+        <v>10.397545589303057</v>
       </c>
       <c r="I3">
-        <v>12.87100775581867</v>
+        <v>12.871007752794524</v>
       </c>
       <c r="J3">
-        <v>17.174599981826844</v>
+        <v>17.174599969091965</v>
       </c>
       <c r="K3">
-        <v>14.752304432006472</v>
+        <v>14.752304430532742</v>
       </c>
       <c r="L3">
-        <v>12.963884693915809</v>
+        <v>12.963884687652588</v>
       </c>
       <c r="M3">
-        <v>14.299177742748936</v>
+        <v>14.299063787549452</v>
       </c>
       <c r="N3">
-        <v>13.200961281454104</v>
+        <v>13.20096127938978</v>
       </c>
       <c r="O3">
-        <v>9.7293749978332258</v>
+        <v>9.7293749986538707</v>
       </c>
       <c r="P3">
-        <v>14.892747733373957</v>
+        <v>14.892747721602248</v>
       </c>
       <c r="Q3">
-        <v>11.240920722985258</v>
+        <v>11.240920716146711</v>
       </c>
       <c r="R3">
-        <v>10.465699772760729</v>
+        <v>10.465699751611059</v>
       </c>
       <c r="S3">
-        <v>15.650272165186566</v>
+        <v>15.650272159339076</v>
       </c>
       <c r="T3">
-        <v>13.474568811922655</v>
+        <v>13.474568806898505</v>
       </c>
       <c r="U3">
-        <v>15.846887935224292</v>
+        <v>15.846887928632631</v>
       </c>
       <c r="V3">
-        <v>11.731151588924266</v>
+        <v>11.731151591109221</v>
       </c>
       <c r="W3">
-        <v>11.441956012193586</v>
+        <v>11.441956002029684</v>
       </c>
       <c r="X3">
-        <v>12.862654486361786</v>
+        <v>12.862654482834257</v>
       </c>
       <c r="Y3">
-        <v>17.703650706320154</v>
+        <v>17.703650696198515</v>
       </c>
       <c r="Z3">
-        <v>15.878780572760462</v>
+        <v>15.878780568336584</v>
       </c>
       <c r="AA3">
-        <v>16.662805417396456</v>
+        <v>16.662805424644851</v>
       </c>
       <c r="AB3">
-        <v>16.565555221114348</v>
+        <v>16.565555211373955</v>
       </c>
       <c r="AC3">
-        <v>16.592386925883009</v>
+        <v>16.592386900933523</v>
       </c>
       <c r="AD3">
-        <v>18.68441917570874</v>
+        <v>18.684419144893546</v>
       </c>
       <c r="AE3">
-        <v>13.511616372475437</v>
+        <v>13.511616349776991</v>
       </c>
       <c r="AF3">
-        <v>15.437601568604563</v>
+        <v>15.437601554494481</v>
       </c>
       <c r="AG3">
-        <v>13.176922568185349</v>
+        <v>13.176922558185741</v>
       </c>
       <c r="AH3">
-        <v>14.816753663771459</v>
+        <v>14.816753655944218</v>
       </c>
       <c r="AI3">
-        <v>22.287522899719111</v>
+        <v>22.287522919181949</v>
       </c>
       <c r="AJ3">
-        <v>15.00064250698655</v>
+        <v>15.000642491755597</v>
       </c>
       <c r="AK3">
-        <v>14.962377200829884</v>
+        <v>14.962377166235552</v>
       </c>
       <c r="AL3">
-        <v>15.168561598733065</v>
+        <v>15.168561586480012</v>
       </c>
       <c r="AM3">
-        <v>15.363611020661075</v>
+        <v>15.363611003681616</v>
       </c>
       <c r="AN3">
-        <v>12.147506320716458</v>
+        <v>12.147506315434603</v>
       </c>
       <c r="AO3">
-        <v>17.071919120574812</v>
+        <v>17.071919081972261</v>
       </c>
       <c r="AP3">
-        <v>11.664172900465253</v>
+        <v>11.664172893403604</v>
       </c>
       <c r="AQ3">
-        <v>11.582173083219756</v>
+        <v>11.582173075265526</v>
       </c>
       <c r="AR3">
-        <v>17.890519298088613</v>
+        <v>17.890519316962301</v>
       </c>
       <c r="AS3">
-        <v>13.52864782130497</v>
+        <v>13.528647827214298</v>
       </c>
       <c r="AT3">
-        <v>16.9482910069189</v>
+        <v>16.948290989689649</v>
       </c>
       <c r="AU3">
-        <v>12.200624007032779</v>
+        <v>12.200623988762038</v>
       </c>
       <c r="AV3">
-        <v>12.289287103834615</v>
+        <v>12.289287084873457</v>
       </c>
       <c r="AW3">
-        <v>14.904642276000732</v>
+        <v>14.90464207372092</v>
       </c>
       <c r="AX3">
-        <v>16.504639834991906</v>
+        <v>16.5046397884933</v>
       </c>
       <c r="AY3">
-        <v>18.572900602284538</v>
+        <v>18.57290059155283</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.926269235052851</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.644413349156169</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>15.124555011421245</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.636120287478064</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.944858369167482</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.334404465351183</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>11.23374549872783</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.21152322912892</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.535511844054788</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.687302198835981</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.256364410201559</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.711446971445303</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.189041021455052</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.232762440473394</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.23535470472777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.901290847121361</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11.559030914856949</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.174195300190345</v>
+        <v>15.627861458257398</v>
       </c>
       <c r="T2">
         <v>13.0558806026017</v>
@@ -588,55 +477,55 @@
         <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>17.346854001942443</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>18.827529692122379</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>14.165980887604332</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>18.291761316014668</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.942764913666139</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.162486016752162</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.288475124066126</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>13.021013359537301</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>19.427289978942465</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>13.417102294208705</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.523454738695733</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>15.118531505691596</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.858941247051874</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>13.066501868432459</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>16.372161865480393</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.739175544269354</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>12.322849670143519</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>17.084851084335412</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.08524154304394</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.378015773074415</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.982707751375441</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.189677103447577</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.823284980447214</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.576112938815983</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.397545589303057</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.871007752794524</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.174599969091965</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.752304430532742</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.963884687652588</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.299063787549452</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.20096127938978</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.7293749986538707</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.892747721602248</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.240920716146711</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.465699751611059</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.650272159339076</v>
@@ -743,55 +629,55 @@
         <v>15.878780568336584</v>
       </c>
       <c r="AA3">
-        <v>16.662805424644851</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.565555211373955</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.592386900933523</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>18.684419144893546</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.511616349776991</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.437601554494481</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>13.176922558185741</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>14.816753655944218</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>22.287522919181949</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>15.000642491755597</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.962377166235552</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>15.168561586480012</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.363611003681616</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>12.147506315434603</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>17.071919081972261</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.664172893403604</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.582173075265526</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.890519316962301</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.926269234428936</v>
+        <v>12.232762440473394</v>
       </c>
       <c r="C2">
-        <v>15.171606135582511</v>
+        <v>11.559030914856949</v>
       </c>
       <c r="D2">
-        <v>15.12455500921252</v>
+        <v>13.066501868432459</v>
       </c>
       <c r="E2">
-        <v>16.636120285813465</v>
+        <v>12.322849670143519</v>
       </c>
       <c r="F2">
         <v>10.944858368975487</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>11.090405638127915</v>
       </c>
       <c r="C3">
-        <v>14.378015777333413</v>
+        <v>10.465699751611059</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>12.552884336383746</v>
       </c>
       <c r="E3">
-        <v>15.189677107815495</v>
+        <v>11.543594037139135</v>
       </c>
       <c r="F3">
         <v>10.823284985931757</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.926269234428936</v>
+        <v>13.06572405778523</v>
       </c>
       <c r="C2">
-        <v>15.171606135582511</v>
+        <v>12.232762440473394</v>
       </c>
       <c r="D2">
-        <v>15.12455500921252</v>
+        <v>13.858941247051874</v>
       </c>
       <c r="E2">
-        <v>16.636120285813465</v>
+        <v>13.066501868432459</v>
       </c>
       <c r="F2">
         <v>10.944858368975487</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>13.20096127938978</v>
       </c>
       <c r="C3">
-        <v>14.378015777333413</v>
+        <v>11.090405638127915</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>15.363611003681616</v>
       </c>
       <c r="E3">
-        <v>16.377190095262844</v>
+        <v>12.552884336383746</v>
       </c>
       <c r="F3">
         <v>10.823284985931757</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.926269235052851</v>
+      </c>
+      <c r="C2">
+        <v>15.171606118753028</v>
+      </c>
+      <c r="D2">
+        <v>15.124555011421245</v>
+      </c>
+      <c r="E2">
+        <v>16.636120287478064</v>
+      </c>
+      <c r="F2">
+        <v>10.944858369167482</v>
+      </c>
+      <c r="G2">
+        <v>14.199633258737803</v>
+      </c>
+      <c r="H2">
+        <v>11.23374549872783</v>
+      </c>
+      <c r="I2">
+        <v>13.021303812818044</v>
+      </c>
+      <c r="J2">
+        <v>16.535511844054788</v>
+      </c>
+      <c r="K2">
+        <v>12.687302198835981</v>
+      </c>
+      <c r="L2">
+        <v>12.875520500525642</v>
+      </c>
+      <c r="M2">
+        <v>15.14796848163151</v>
+      </c>
+      <c r="N2">
         <v>13.06572405778523</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>12.232762440473394</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.553224989148866</v>
+      </c>
+      <c r="Q2">
+        <v>12.901290847121361</v>
+      </c>
+      <c r="R2">
+        <v>11.559030914856949</v>
+      </c>
+      <c r="T2">
+        <v>12.477663673453621</v>
+      </c>
+      <c r="U2">
+        <v>15.060853930599173</v>
+      </c>
+      <c r="V2">
+        <v>11.539843382387801</v>
+      </c>
+      <c r="W2">
+        <v>10.476582942264697</v>
+      </c>
+      <c r="X2">
+        <v>14.537793905942495</v>
+      </c>
+      <c r="Y2">
+        <v>15.372366483224297</v>
+      </c>
+      <c r="Z2">
+        <v>14.957034538394881</v>
+      </c>
+      <c r="AA2">
+        <v>17.346854001942443</v>
+      </c>
+      <c r="AB2">
+        <v>18.827529692122379</v>
+      </c>
+      <c r="AC2">
+        <v>14.165980887604332</v>
+      </c>
+      <c r="AD2">
+        <v>18.291761316014668</v>
+      </c>
+      <c r="AE2">
+        <v>12.942764913666139</v>
+      </c>
+      <c r="AF2">
+        <v>14.162486016752162</v>
+      </c>
+      <c r="AG2">
+        <v>12.288475124066126</v>
+      </c>
+      <c r="AH2">
+        <v>13.021013359537301</v>
+      </c>
+      <c r="AI2">
+        <v>19.427289978942465</v>
+      </c>
+      <c r="AJ2">
+        <v>13.417102294208705</v>
+      </c>
+      <c r="AK2">
+        <v>13.523454738695733</v>
+      </c>
+      <c r="AL2">
+        <v>15.118531505691596</v>
+      </c>
+      <c r="AM2">
         <v>13.858941247051874</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>13.066501868432459</v>
       </c>
-      <c r="F2">
-        <v>10.944858368975487</v>
-      </c>
-      <c r="G2">
-        <v>14.199633272416396</v>
-      </c>
-      <c r="H2">
-        <v>11.233745507449594</v>
-      </c>
-      <c r="I2">
-        <v>13.021303810699397</v>
-      </c>
-      <c r="J2">
-        <v>16.535511844849648</v>
-      </c>
-      <c r="K2">
-        <v>12.687302201093361</v>
-      </c>
-      <c r="L2">
-        <v>12.875520539387189</v>
-      </c>
-      <c r="M2">
-        <v>15.147968483457925</v>
-      </c>
-      <c r="N2">
-        <v>13.065724064536768</v>
-      </c>
-      <c r="O2">
-        <v>12.232762436246599</v>
-      </c>
-      <c r="P2">
-        <v>14.553225000338834</v>
-      </c>
-      <c r="Q2">
-        <v>12.9012908487733</v>
-      </c>
-      <c r="R2">
-        <v>11.559030910670156</v>
-      </c>
-      <c r="T2">
-        <v>12.47766367271632</v>
-      </c>
-      <c r="U2">
-        <v>15.060853934685248</v>
-      </c>
-      <c r="V2">
-        <v>11.539843395195213</v>
-      </c>
-      <c r="W2">
-        <v>10.476582958092003</v>
-      </c>
-      <c r="X2">
-        <v>14.53779390530056</v>
-      </c>
-      <c r="Y2">
-        <v>15.372366486878736</v>
-      </c>
-      <c r="Z2">
-        <v>14.957034543430673</v>
-      </c>
-      <c r="AA2">
-        <v>17.346853987558212</v>
-      </c>
-      <c r="AB2">
-        <v>18.827529703083101</v>
-      </c>
-      <c r="AC2">
-        <v>14.165980893651655</v>
-      </c>
-      <c r="AD2">
-        <v>18.291761322453194</v>
-      </c>
-      <c r="AE2">
-        <v>12.942764912499328</v>
-      </c>
-      <c r="AF2">
-        <v>14.162486025666707</v>
-      </c>
-      <c r="AG2">
-        <v>12.288475133574511</v>
-      </c>
-      <c r="AH2">
-        <v>13.021013363343185</v>
-      </c>
-      <c r="AI2">
-        <v>19.427290009225047</v>
-      </c>
-      <c r="AJ2">
-        <v>13.417102303770372</v>
-      </c>
-      <c r="AK2">
-        <v>13.5234547455032</v>
-      </c>
-      <c r="AL2">
-        <v>15.118531514280306</v>
-      </c>
-      <c r="AM2">
-        <v>13.858941265384534</v>
-      </c>
-      <c r="AN2">
-        <v>13.066501876712969</v>
-      </c>
       <c r="AO2">
-        <v>16.372161836373895</v>
+        <v>16.372161865480393</v>
       </c>
       <c r="AP2">
-        <v>14.157590014767729</v>
+        <v>14.157590008596083</v>
       </c>
       <c r="AQ2">
-        <v>12.322849687399707</v>
+        <v>12.322849670143519</v>
       </c>
       <c r="AR2">
-        <v>17.084851085983612</v>
+        <v>17.084851084335412</v>
       </c>
       <c r="AS2">
-        <v>15.198875437573353</v>
+        <v>15.198875421769298</v>
       </c>
       <c r="AT2">
-        <v>17.033622666436699</v>
+        <v>17.033622686537175</v>
       </c>
       <c r="AU2">
-        <v>10.960125201794799</v>
+        <v>10.960125204363099</v>
       </c>
       <c r="AV2">
-        <v>13.572157740914232</v>
+        <v>13.572157750411995</v>
       </c>
       <c r="AW2">
-        <v>14.528030956252813</v>
+        <v>14.528030936549113</v>
       </c>
       <c r="AX2">
-        <v>17.690109304001044</v>
+        <v>17.690109289365203</v>
       </c>
       <c r="AY2">
-        <v>17.105012786921105</v>
+        <v>17.105012776119221</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.08524154304394</v>
+      </c>
+      <c r="C3">
+        <v>14.378015773074415</v>
+      </c>
+      <c r="D3">
+        <v>15.982707751375441</v>
+      </c>
+      <c r="E3">
+        <v>16.377190086368397</v>
+      </c>
+      <c r="F3">
+        <v>10.823284980447214</v>
+      </c>
+      <c r="G3">
+        <v>14.576112938815983</v>
+      </c>
+      <c r="H3">
+        <v>10.397545589303057</v>
+      </c>
+      <c r="I3">
+        <v>12.871007752794524</v>
+      </c>
+      <c r="J3">
+        <v>17.174599969091965</v>
+      </c>
+      <c r="K3">
+        <v>14.550542341482153</v>
+      </c>
+      <c r="L3">
+        <v>12.963884687652588</v>
+      </c>
+      <c r="M3">
+        <v>13.675031225833159</v>
+      </c>
+      <c r="N3">
         <v>13.20096127938978</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>11.090405638127915</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.892747721602248</v>
+      </c>
+      <c r="Q3">
+        <v>11.240920716146711</v>
+      </c>
+      <c r="R3">
+        <v>10.465699751611059</v>
+      </c>
+      <c r="S3">
+        <v>15.650272159339076</v>
+      </c>
+      <c r="T3">
+        <v>13.474568806898505</v>
+      </c>
+      <c r="U3">
+        <v>15.846887928632631</v>
+      </c>
+      <c r="V3">
+        <v>12.04126225235907</v>
+      </c>
+      <c r="W3">
+        <v>11.448362073349545</v>
+      </c>
+      <c r="X3">
+        <v>12.862654482834257</v>
+      </c>
+      <c r="Y3">
+        <v>17.703650696198515</v>
+      </c>
+      <c r="Z3">
+        <v>15.878780568336584</v>
+      </c>
+      <c r="AA3">
+        <v>16.662805424644851</v>
+      </c>
+      <c r="AB3">
+        <v>16.565555211373955</v>
+      </c>
+      <c r="AC3">
+        <v>16.592386900933523</v>
+      </c>
+      <c r="AD3">
+        <v>18.684419144893546</v>
+      </c>
+      <c r="AE3">
+        <v>13.511616349776991</v>
+      </c>
+      <c r="AF3">
+        <v>15.437601554494481</v>
+      </c>
+      <c r="AG3">
+        <v>13.176922558185741</v>
+      </c>
+      <c r="AH3">
+        <v>14.816753655944218</v>
+      </c>
+      <c r="AI3">
+        <v>17.371396044894961</v>
+      </c>
+      <c r="AJ3">
+        <v>15.000642491755597</v>
+      </c>
+      <c r="AK3">
+        <v>14.962377166235552</v>
+      </c>
+      <c r="AL3">
+        <v>15.168561586480012</v>
+      </c>
+      <c r="AM3">
         <v>15.363611003681616</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>12.552884336383746</v>
       </c>
-      <c r="F3">
-        <v>10.823284985931757</v>
-      </c>
-      <c r="G3">
-        <v>14.576112942933117</v>
-      </c>
-      <c r="H3">
-        <v>10.397545586986036</v>
-      </c>
-      <c r="I3">
-        <v>12.87100775581867</v>
-      </c>
-      <c r="J3">
-        <v>17.174599981826844</v>
-      </c>
-      <c r="K3">
-        <v>14.550542342553319</v>
-      </c>
-      <c r="L3">
-        <v>12.963884693915809</v>
-      </c>
-      <c r="M3">
-        <v>13.675119022036478</v>
-      </c>
-      <c r="N3">
-        <v>13.200961281454104</v>
-      </c>
-      <c r="O3">
-        <v>11.090405638629498</v>
-      </c>
-      <c r="P3">
-        <v>14.892747733373957</v>
-      </c>
-      <c r="Q3">
-        <v>11.240920722985258</v>
-      </c>
-      <c r="R3">
-        <v>10.465699772760729</v>
-      </c>
-      <c r="S3">
-        <v>15.650272165186566</v>
-      </c>
-      <c r="T3">
-        <v>13.474568811922655</v>
-      </c>
-      <c r="U3">
-        <v>15.846887935224292</v>
-      </c>
-      <c r="V3">
-        <v>12.041262259983764</v>
-      </c>
-      <c r="W3">
-        <v>11.448362076391284</v>
-      </c>
-      <c r="X3">
-        <v>12.862654486361786</v>
-      </c>
-      <c r="Y3">
-        <v>17.703650706320154</v>
-      </c>
-      <c r="Z3">
-        <v>15.878780572760462</v>
-      </c>
-      <c r="AA3">
-        <v>16.662805417396456</v>
-      </c>
-      <c r="AB3">
-        <v>16.565555221114348</v>
-      </c>
-      <c r="AC3">
-        <v>16.592386925883009</v>
-      </c>
-      <c r="AD3">
-        <v>18.68441917570874</v>
-      </c>
-      <c r="AE3">
-        <v>13.511616372475437</v>
-      </c>
-      <c r="AF3">
-        <v>15.437601568604563</v>
-      </c>
-      <c r="AG3">
-        <v>13.176922568185349</v>
-      </c>
-      <c r="AH3">
-        <v>14.816753663771459</v>
-      </c>
-      <c r="AI3">
-        <v>17.371396091422927</v>
-      </c>
-      <c r="AJ3">
-        <v>15.00064250698655</v>
-      </c>
-      <c r="AK3">
-        <v>14.962377200829884</v>
-      </c>
-      <c r="AL3">
-        <v>15.168561598733065</v>
-      </c>
-      <c r="AM3">
-        <v>15.363611020661075</v>
-      </c>
-      <c r="AN3">
-        <v>12.552884340526024</v>
-      </c>
       <c r="AO3">
-        <v>17.071919120574812</v>
+        <v>17.071919081972261</v>
       </c>
       <c r="AP3">
-        <v>11.664172900465253</v>
+        <v>11.664172893403604</v>
       </c>
       <c r="AQ3">
-        <v>11.543594042580047</v>
+        <v>11.543594037139135</v>
       </c>
       <c r="AR3">
-        <v>17.890519298088613</v>
+        <v>17.890519316962301</v>
       </c>
       <c r="AS3">
-        <v>13.52864782130497</v>
+        <v>13.528647827214298</v>
       </c>
       <c r="AT3">
-        <v>16.9482910069189</v>
+        <v>16.948290989689649</v>
       </c>
       <c r="AU3">
-        <v>12.300862007363172</v>
+        <v>12.300861967059307</v>
       </c>
       <c r="AV3">
-        <v>12.289287103834615</v>
+        <v>12.289287084873457</v>
       </c>
       <c r="AW3">
-        <v>14.904642276000732</v>
+        <v>14.90464207372092</v>
       </c>
       <c r="AX3">
-        <v>16.504639834991906</v>
+        <v>16.5046397884933</v>
       </c>
       <c r="AY3">
-        <v>18.572900602284538</v>
+        <v>18.57290059155283</v>
       </c>
     </row>
   </sheetData>
